--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value536.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value536.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.123383319677852</v>
+        <v>2.094868421554565</v>
       </c>
       <c r="B1">
-        <v>1.318347716661135</v>
+        <v>2.630671739578247</v>
       </c>
       <c r="C1">
-        <v>1.278746955655391</v>
+        <v>2.745026111602783</v>
       </c>
       <c r="D1">
-        <v>1.518479412334585</v>
+        <v>3.094021797180176</v>
       </c>
       <c r="E1">
-        <v>2.099892352069595</v>
+        <v>0.7571657299995422</v>
       </c>
     </row>
   </sheetData>
